--- a/excel_with_subclasses/without_zeros/street_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/street_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q207934</t>
@@ -88,27 +88,27 @@
     <t>Q762042</t>
   </si>
   <si>
+    <t>Q56753514</t>
+  </si>
+  <si>
+    <t>Q10505824</t>
+  </si>
+  <si>
     <t>Q7069589</t>
   </si>
   <si>
-    <t>Q10505824</t>
-  </si>
-  <si>
-    <t>Q56753514</t>
-  </si>
-  <si>
     <t>Q29002287</t>
   </si>
   <si>
     <t>Q2312661</t>
   </si>
   <si>
+    <t>Q63676707</t>
+  </si>
+  <si>
     <t>Q790585</t>
   </si>
   <si>
-    <t>Q63676707</t>
-  </si>
-  <si>
     <t>Q85803433</t>
   </si>
   <si>
@@ -118,48 +118,48 @@
     <t>Q2327985</t>
   </si>
   <si>
+    <t>Q70093915</t>
+  </si>
+  <si>
+    <t>Q96288394</t>
+  </si>
+  <si>
+    <t>Q286907</t>
+  </si>
+  <si>
     <t>Q18419119</t>
   </si>
   <si>
-    <t>Q286907</t>
-  </si>
-  <si>
-    <t>Q70093915</t>
-  </si>
-  <si>
     <t>Q7834363</t>
   </si>
   <si>
-    <t>Q96288394</t>
-  </si>
-  <si>
     <t>Q11374982</t>
   </si>
   <si>
+    <t>Q1917434</t>
+  </si>
+  <si>
+    <t>Q1628979</t>
+  </si>
+  <si>
     <t>Q57244577</t>
   </si>
   <si>
-    <t>Q1628979</t>
+    <t>Q814289</t>
+  </si>
+  <si>
+    <t>Q20978687</t>
+  </si>
+  <si>
+    <t>Q2130039</t>
+  </si>
+  <si>
+    <t>Q921061</t>
   </si>
   <si>
     <t>Q10514513</t>
   </si>
   <si>
-    <t>Q921061</t>
-  </si>
-  <si>
-    <t>Q2130039</t>
-  </si>
-  <si>
-    <t>Q20978687</t>
-  </si>
-  <si>
-    <t>Q1917434</t>
-  </si>
-  <si>
-    <t>Q814289</t>
-  </si>
-  <si>
     <t>аллея</t>
   </si>
   <si>
@@ -220,27 +220,27 @@
     <t>vennel</t>
   </si>
   <si>
+    <t>Rambla</t>
+  </si>
+  <si>
+    <t>насыпь</t>
+  </si>
+  <si>
     <t>numbered street</t>
   </si>
   <si>
-    <t>насыпь</t>
-  </si>
-  <si>
-    <t>Rambla</t>
-  </si>
-  <si>
     <t>travesía</t>
   </si>
   <si>
     <t>dead end alley</t>
   </si>
   <si>
+    <t>seafront</t>
+  </si>
+  <si>
     <t>Avenue of honour</t>
   </si>
   <si>
-    <t>seafront</t>
-  </si>
-  <si>
     <t>step street</t>
   </si>
   <si>
@@ -250,42 +250,42 @@
     <t>Stadtring</t>
   </si>
   <si>
+    <t>one-way street</t>
+  </si>
+  <si>
+    <t>shōtengai</t>
+  </si>
+  <si>
+    <t>ABC street</t>
+  </si>
+  <si>
     <t>костанилья</t>
   </si>
   <si>
-    <t>ABC street</t>
-  </si>
-  <si>
-    <t>one-way street</t>
-  </si>
-  <si>
     <t>transit mall</t>
   </si>
   <si>
-    <t>shōtengai</t>
-  </si>
-  <si>
     <t>Streets in Kyoto City</t>
   </si>
   <si>
+    <t>Multilevel streets in Chicago</t>
+  </si>
+  <si>
     <t>жилая зона</t>
   </si>
   <si>
+    <t>Residential area road signs</t>
+  </si>
+  <si>
+    <t>ring road</t>
+  </si>
+  <si>
+    <t>Book town</t>
+  </si>
+  <si>
     <t>Дороги Шу</t>
   </si>
   <si>
-    <t>Book town</t>
-  </si>
-  <si>
-    <t>ring road</t>
-  </si>
-  <si>
-    <t>Multilevel streets in Chicago</t>
-  </si>
-  <si>
-    <t>Residential area road signs</t>
-  </si>
-  <si>
     <t>Q79007_улица</t>
   </si>
   <si>
@@ -298,10 +298,10 @@
     <t>Q12731_тупик,Q1251403_проезд</t>
   </si>
   <si>
+    <t>Q79007_улица,Q88372_Эспланада</t>
+  </si>
+  <si>
     <t>Q207934_аллея</t>
-  </si>
-  <si>
-    <t>Q79007_улица,Q88372_Эспланада</t>
   </si>
   <si>
     <t>Q21000333_shopping street</t>
@@ -695,9 +695,6 @@
       <c r="C2" t="s">
         <v>90</v>
       </c>
-      <c r="D2">
-        <v>1252</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -709,9 +706,6 @@
       <c r="C3" t="s">
         <v>90</v>
       </c>
-      <c r="D3">
-        <v>1074</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -723,9 +717,6 @@
       <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="D4">
-        <v>754</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -737,9 +728,6 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5">
-        <v>627</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -751,9 +739,6 @@
       <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="D6">
-        <v>523</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -765,9 +750,6 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="D7">
-        <v>316</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -779,9 +761,6 @@
       <c r="C8" t="s">
         <v>90</v>
       </c>
-      <c r="D8">
-        <v>298</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -793,9 +772,6 @@
       <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D9">
-        <v>248</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -807,9 +783,6 @@
       <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="D10">
-        <v>203</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -821,9 +794,6 @@
       <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="D11">
-        <v>143</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -835,9 +805,6 @@
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D12">
-        <v>124</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -849,9 +816,6 @@
       <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="D13">
-        <v>66</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -863,9 +827,6 @@
       <c r="C14" t="s">
         <v>91</v>
       </c>
-      <c r="D14">
-        <v>57</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -877,9 +838,6 @@
       <c r="C15" t="s">
         <v>90</v>
       </c>
-      <c r="D15">
-        <v>28</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -891,11 +849,8 @@
       <c r="C16" t="s">
         <v>90</v>
       </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -905,11 +860,8 @@
       <c r="C17" t="s">
         <v>90</v>
       </c>
-      <c r="D17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -919,11 +871,8 @@
       <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -933,11 +882,8 @@
       <c r="C19" t="s">
         <v>90</v>
       </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -947,11 +893,8 @@
       <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -961,11 +904,8 @@
       <c r="C21" t="s">
         <v>92</v>
       </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -975,11 +915,8 @@
       <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -989,11 +926,8 @@
       <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="D23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1003,11 +937,8 @@
       <c r="C24" t="s">
         <v>90</v>
       </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1017,11 +948,8 @@
       <c r="C25" t="s">
         <v>90</v>
       </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1031,11 +959,8 @@
       <c r="C26" t="s">
         <v>93</v>
       </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1045,11 +970,8 @@
       <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1059,11 +981,8 @@
       <c r="C28" t="s">
         <v>95</v>
       </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1073,11 +992,8 @@
       <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1087,11 +1003,8 @@
       <c r="C30" t="s">
         <v>90</v>
       </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1101,11 +1014,8 @@
       <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1115,11 +1025,8 @@
       <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1127,13 +1034,10 @@
         <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1143,11 +1047,8 @@
       <c r="C34" t="s">
         <v>90</v>
       </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1157,11 +1058,8 @@
       <c r="C35" t="s">
         <v>90</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1169,13 +1067,10 @@
         <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1185,53 +1080,41 @@
       <c r="C37" t="s">
         <v>90</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>90</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1239,41 +1122,32 @@
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1281,13 +1155,10 @@
         <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1295,10 +1166,7 @@
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
